--- a/TimeBoxing.xlsx
+++ b/TimeBoxing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\SplittingTheWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082D1A31-0EA2-4C49-8FBE-C232C2E26F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38021E8-BB1D-4F98-92C4-369297367E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{276AB423-533A-4E40-B8C0-D8A503FE0BBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3-20" sheetId="3" r:id="rId1"/>
+    <sheet name="Template" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
   <si>
     <t>TB</t>
   </si>
@@ -47,13 +48,109 @@
     <t>End</t>
   </si>
   <si>
-    <t>Tuesday &amp; Thursday</t>
-  </si>
-  <si>
-    <t>Wednesday &amp; Friday</t>
-  </si>
-  <si>
-    <t>Sunday &amp; Monday</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Write tests for Block</t>
+  </si>
+  <si>
+    <t>Sort laundry</t>
+  </si>
+  <si>
+    <t>start load</t>
+  </si>
+  <si>
+    <t>Read link from prof</t>
+  </si>
+  <si>
+    <t>respond on discussion</t>
+  </si>
+  <si>
+    <t>move loads</t>
+  </si>
+  <si>
+    <t>get laundry</t>
+  </si>
+  <si>
+    <t>fold laundry</t>
+  </si>
+  <si>
+    <t>Read chapter resaerch book</t>
+  </si>
+  <si>
+    <t>start reading source 1</t>
+  </si>
+  <si>
+    <t>Take notes for source 1</t>
+  </si>
+  <si>
+    <t>extra laundry?</t>
+  </si>
+  <si>
+    <t>read source 2</t>
+  </si>
+  <si>
+    <t>take notes source 2</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Read chapter research book</t>
+  </si>
+  <si>
+    <t>Setup for the day</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Taco Tuesday</t>
+  </si>
+  <si>
+    <t>read source 3</t>
+  </si>
+  <si>
+    <t>take notes source 3</t>
+  </si>
+  <si>
+    <t>read source 4</t>
+  </si>
+  <si>
+    <t>take notes source 4</t>
+  </si>
+  <si>
+    <t>Cook Chicken alfedo</t>
+  </si>
+  <si>
+    <t>Read EAS essay</t>
+  </si>
+  <si>
+    <t>Respond to Jayson</t>
+  </si>
+  <si>
+    <t>Craft of Research</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Read AI textbook</t>
   </si>
 </sst>
 </file>
@@ -69,15 +166,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,22 +209,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,630 +668,2634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D96AC9-AA47-49DA-AF8D-D0DDF9494A25}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F05B28-24A5-471C-957E-92267C8D71E9}">
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="Y1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="1" t="s">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="15"/>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="15"/>
+      <c r="AE4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="15"/>
+      <c r="AE5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="B6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="15"/>
+      <c r="AE6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="15"/>
+      <c r="AE7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="15"/>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="15"/>
+      <c r="AE9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="15"/>
+      <c r="AE10" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="15"/>
+      <c r="AE11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="15"/>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="1">
+        <v>11</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="15"/>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="S14" s="1">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="15"/>
+      <c r="AE14" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="S15" s="1">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="15"/>
+      <c r="AE15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="15"/>
+      <c r="AE16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="S17" s="1">
+        <v>15</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="15"/>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="4"/>
+      <c r="S18" s="1">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="S19" s="1">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="S20" s="1">
+        <v>18</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="S21" s="1">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B8CE7-00D9-4394-B5D8-9660AA9EADCB}">
+  <dimension ref="A1:AJ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="Y1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="O3" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="2">
+      <c r="P3" s="4"/>
+      <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="T3" s="3">
         <v>0.4375</v>
       </c>
-      <c r="H3" s="3">
+      <c r="U3" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K3" s="2">
+      <c r="Y3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Z3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="15"/>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
         <v>0.4375</v>
       </c>
-      <c r="M3" s="3">
+      <c r="AG3" s="3">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
         <v>0.53819444444444442</v>
       </c>
-      <c r="C4" s="3">
+      <c r="O4" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="2">
+      <c r="P4" s="4"/>
+      <c r="S4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="T4" s="3">
         <v>0.47569444444444442</v>
       </c>
-      <c r="H4" s="3">
+      <c r="U4" s="3">
         <v>0.49652777777777773</v>
       </c>
-      <c r="K4" s="2">
+      <c r="Y4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Z4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="15"/>
+      <c r="AE4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
         <v>0.47569444444444442</v>
       </c>
-      <c r="M4" s="3">
+      <c r="AG4" s="3">
         <v>0.49652777777777773</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
         <v>0.57638888888888884</v>
       </c>
-      <c r="C5" s="3">
+      <c r="O5" s="3">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="F5" s="2">
+      <c r="P5" s="4"/>
+      <c r="S5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="T5" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="H5" s="3">
+      <c r="U5" s="3">
         <v>0.5347222222222221</v>
       </c>
-      <c r="K5" s="2">
+      <c r="Y5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Z5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="15"/>
+      <c r="AE5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="M5" s="3">
+      <c r="AG5" s="3">
         <v>0.5347222222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
         <v>0.61458333333333326</v>
       </c>
-      <c r="C6" s="3">
+      <c r="O6" s="3">
         <v>0.63541666666666674</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="F6" s="2">
+      <c r="P6" s="4"/>
+      <c r="S6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="T6" s="3">
         <v>0.55208333333333326</v>
       </c>
-      <c r="H6" s="3">
+      <c r="U6" s="3">
         <v>0.57291666666666652</v>
       </c>
-      <c r="K6" s="2">
+      <c r="Y6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Z6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="15"/>
+      <c r="AE6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="3">
         <v>0.55208333333333326</v>
       </c>
-      <c r="M6" s="3">
+      <c r="AG6" s="3">
         <v>0.57291666666666652</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
         <v>0.65277777777777768</v>
       </c>
-      <c r="C7" s="3">
+      <c r="O7" s="3">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="2">
+      <c r="P7" s="4"/>
+      <c r="S7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="T7" s="3">
         <v>0.59027777777777768</v>
       </c>
-      <c r="H7" s="3">
+      <c r="U7" s="3">
         <v>0.61111111111111094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Y7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Z7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="15"/>
+      <c r="AE7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="3">
         <v>0.59027777777777768</v>
       </c>
-      <c r="M7" s="3">
+      <c r="AG7" s="3">
         <v>0.61111111111111094</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
         <v>0.69097222222222221</v>
       </c>
-      <c r="C8" s="3">
+      <c r="O8" s="3">
         <v>0.71180555555555558</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="2">
+      <c r="P8" s="4"/>
+      <c r="S8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="T8" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="H8" s="3">
+      <c r="U8" s="3">
         <v>0.64930555555555536</v>
       </c>
-      <c r="K8" s="2">
+      <c r="Y8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Z8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="15"/>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="M8" s="3">
+      <c r="AG8" s="3">
         <v>0.64930555555555536</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="3">
+      <c r="O9" s="3">
         <v>0.75</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="F9" s="2">
+      <c r="P9" s="4"/>
+      <c r="S9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="T9" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H9" s="3">
+      <c r="U9" s="3">
         <v>0.68749999999999978</v>
       </c>
-      <c r="K9" s="2">
+      <c r="Y9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Z9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="15"/>
+      <c r="AE9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="M9" s="3">
+      <c r="AG9" s="3">
         <v>0.68749999999999978</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>0.76736111111111105</v>
       </c>
-      <c r="C10" s="3">
+      <c r="O10" s="3">
         <v>0.78819444444444442</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="2">
+      <c r="P10" s="4"/>
+      <c r="S10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="T10" s="3">
         <v>0.70486111111111105</v>
       </c>
-      <c r="H10" s="3">
+      <c r="U10" s="3">
         <v>0.72569444444444409</v>
       </c>
-      <c r="K10" s="2">
+      <c r="Y10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Z10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="15"/>
+      <c r="AE10" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="3">
         <v>0.70486111111111105</v>
       </c>
-      <c r="M10" s="3">
+      <c r="AG10" s="3">
         <v>0.72569444444444409</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
         <v>0.80555555555555547</v>
       </c>
-      <c r="C11" s="3">
+      <c r="O11" s="3">
         <v>0.82638888888888884</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="2">
+      <c r="P11" s="4"/>
+      <c r="S11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="T11" s="3">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H11" s="3">
+      <c r="U11" s="3">
         <v>0.76388888888888851</v>
       </c>
-      <c r="K11" s="2">
+      <c r="Y11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Z11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="15"/>
+      <c r="AE11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="3">
         <v>0.74305555555555547</v>
       </c>
-      <c r="M11" s="3">
+      <c r="AG11" s="3">
         <v>0.76388888888888851</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
         <v>0.84374999999999989</v>
       </c>
-      <c r="C12" s="3">
+      <c r="O12" s="3">
         <v>0.86458333333333326</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="2">
+      <c r="P12" s="4"/>
+      <c r="S12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="T12" s="3">
         <v>0.78124999999999989</v>
       </c>
-      <c r="H12" s="3">
+      <c r="U12" s="3">
         <v>0.80208333333333293</v>
       </c>
-      <c r="K12" s="2">
+      <c r="Y12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Z12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="15"/>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
         <v>0.78124999999999989</v>
       </c>
-      <c r="M12" s="3">
+      <c r="AG12" s="3">
         <v>0.80208333333333293</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3">
         <v>0.88194444444444442</v>
       </c>
-      <c r="C13" s="3">
+      <c r="O13" s="3">
         <v>0.90277777777777768</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="2">
+      <c r="P13" s="4"/>
+      <c r="S13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="3">
+      <c r="T13" s="3">
         <v>0.81944444444444442</v>
       </c>
-      <c r="H13" s="3">
+      <c r="U13" s="3">
         <v>0.84027777777777724</v>
       </c>
-      <c r="K13" s="2">
+      <c r="Y13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Z13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="15"/>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="3">
         <v>0.81944444444444442</v>
       </c>
-      <c r="M13" s="3">
+      <c r="AG13" s="3">
         <v>0.84027777777777724</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
         <v>0.92013888888888884</v>
       </c>
-      <c r="C14" s="3">
+      <c r="O14" s="3">
         <v>0.9409722222222221</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="F14" s="2">
+      <c r="P14" s="4"/>
+      <c r="S14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="3">
+      <c r="T14" s="3">
         <v>0.85763888888888884</v>
       </c>
-      <c r="H14" s="3">
+      <c r="U14" s="3">
         <v>0.87847222222222165</v>
       </c>
-      <c r="K14" s="2">
+      <c r="Y14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Z14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="15"/>
+      <c r="AE14" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3">
         <v>0.85763888888888884</v>
       </c>
-      <c r="M14" s="3">
+      <c r="AG14" s="3">
         <v>0.87847222222222165</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3">
         <v>0.95833333333333326</v>
       </c>
-      <c r="C15" s="3">
+      <c r="O15" s="3">
         <v>0.97916666666666652</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="F15" s="2">
+      <c r="P15" s="4"/>
+      <c r="S15" s="1">
         <v>13</v>
       </c>
-      <c r="G15" s="3">
+      <c r="T15" s="3">
         <v>0.89583333333333326</v>
       </c>
-      <c r="H15" s="3">
+      <c r="U15" s="3">
         <v>0.91666666666666607</v>
       </c>
-      <c r="K15" s="2">
+      <c r="Y15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Z15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="15"/>
+      <c r="AE15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3">
         <v>0.89583333333333326</v>
       </c>
-      <c r="M15" s="3">
+      <c r="AG15" s="3">
         <v>0.91666666666666607</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3">
         <v>0.99652777777777768</v>
       </c>
-      <c r="C16" s="3">
+      <c r="O16" s="3">
         <v>1.0173611111111109</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="F16" s="2">
+      <c r="P16" s="4"/>
+      <c r="S16" s="1">
         <v>14</v>
       </c>
-      <c r="G16" s="3">
+      <c r="T16" s="3">
         <v>0.93402777777777768</v>
       </c>
-      <c r="H16" s="3">
+      <c r="U16" s="3">
         <v>0.95486111111111049</v>
       </c>
-      <c r="K16" s="2">
+      <c r="Y16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Z16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="15"/>
+      <c r="AE16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3">
         <v>0.93402777777777768</v>
       </c>
-      <c r="M16" s="3">
+      <c r="AG16" s="3">
         <v>0.95486111111111049</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0347222222222221</v>
       </c>
-      <c r="C17" s="3">
+      <c r="O17" s="6">
         <v>1.0555555555555554</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="F17" s="2">
+      <c r="P17" s="4"/>
+      <c r="S17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="3">
+      <c r="T17" s="3">
         <v>0.9722222222222221</v>
       </c>
-      <c r="H17" s="3">
+      <c r="U17" s="3">
         <v>0.99305555555555491</v>
       </c>
-      <c r="K17" s="2">
+      <c r="Y17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Z17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="15"/>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3">
         <v>0.9722222222222221</v>
       </c>
-      <c r="M17" s="3">
+      <c r="AG17" s="3">
         <v>0.99305555555555491</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="G18" s="3">
+      <c r="B18" s="3">
         <v>1.0104166666666665</v>
       </c>
+      <c r="C18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
       <c r="H18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="I18" s="3">
         <v>1.0312499999999993</v>
       </c>
-      <c r="K18" s="2">
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="4"/>
+      <c r="S18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="3">
+      <c r="T18" s="3">
         <v>1.0104166666666665</v>
       </c>
-      <c r="M18" s="3">
+      <c r="U18" s="3">
         <v>1.0312499999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="2">
+      <c r="AE18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="3">
+      <c r="B19" s="3">
         <v>1.0486111111111112</v>
       </c>
+      <c r="C19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
       <c r="H19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="I19" s="3">
         <v>1.0694444444444438</v>
       </c>
-      <c r="K19" s="2">
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="S19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="3">
+      <c r="T19" s="3">
         <v>1.0486111111111112</v>
       </c>
-      <c r="M19" s="3">
+      <c r="U19" s="3">
         <v>1.0694444444444438</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="2">
+      <c r="AE19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="G20" s="3">
+      <c r="B20" s="3">
         <v>1.0868055555555554</v>
       </c>
+      <c r="C20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
       <c r="H20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="I20" s="3">
         <v>1.1076388888888884</v>
       </c>
-      <c r="K20" s="2">
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="S20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="3">
+      <c r="T20" s="3">
         <v>1.0868055555555554</v>
       </c>
-      <c r="M20" s="3">
+      <c r="U20" s="3">
         <v>1.1076388888888884</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="2">
+      <c r="AE20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="G21" s="3">
+      <c r="B21" s="3">
         <v>1.1249999999999996</v>
       </c>
+      <c r="C21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
       <c r="H21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="I21" s="3">
         <v>1.145833333333333</v>
       </c>
-      <c r="K21" s="2">
+      <c r="J21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="S21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="3">
+      <c r="T21" s="3">
         <v>1.1249999999999996</v>
       </c>
-      <c r="M21" s="3">
+      <c r="U21" s="3">
         <v>1.145833333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="AE21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Y1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/TimeBoxing.xlsx
+++ b/TimeBoxing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\SplittingTheWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38021E8-BB1D-4F98-92C4-369297367E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CF7F8-07B7-4401-85FA-9E7C8015B58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{276AB423-533A-4E40-B8C0-D8A503FE0BBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="3-20" sheetId="3" r:id="rId1"/>
-    <sheet name="Template" sheetId="4" r:id="rId2"/>
+    <sheet name="3-26" sheetId="5" r:id="rId1"/>
+    <sheet name="3-20" sheetId="3" r:id="rId2"/>
+    <sheet name="Template" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
   <si>
     <t>TB</t>
   </si>
@@ -75,18 +76,12 @@
     <t>fold laundry</t>
   </si>
   <si>
-    <t>Read chapter resaerch book</t>
-  </si>
-  <si>
     <t>start reading source 1</t>
   </si>
   <si>
     <t>Take notes for source 1</t>
   </si>
   <si>
-    <t>extra laundry?</t>
-  </si>
-  <si>
     <t>read source 2</t>
   </si>
   <si>
@@ -120,9 +115,6 @@
     <t>Tutor</t>
   </si>
   <si>
-    <t>Taco Tuesday</t>
-  </si>
-  <si>
     <t>read source 3</t>
   </si>
   <si>
@@ -151,6 +143,81 @@
   </si>
   <si>
     <t>Read AI textbook</t>
+  </si>
+  <si>
+    <t>Read source 3</t>
+  </si>
+  <si>
+    <t>read Source 4</t>
+  </si>
+  <si>
+    <t>Read history of science</t>
+  </si>
+  <si>
+    <t>Take Notes</t>
+  </si>
+  <si>
+    <t>Watch AI video</t>
+  </si>
+  <si>
+    <t>tutor</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>Watch AI Video</t>
+  </si>
+  <si>
+    <t>Check discussion</t>
+  </si>
+  <si>
+    <t>transcribe notes</t>
+  </si>
+  <si>
+    <t>cook dinner</t>
+  </si>
+  <si>
+    <t>UT austin prof</t>
+  </si>
+  <si>
+    <t>Read Ai textbook</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>chapter 2</t>
+  </si>
+  <si>
+    <t>Textbook</t>
+  </si>
+  <si>
+    <t>textbook</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Schedule making</t>
+  </si>
+  <si>
+    <t>Chunk Code</t>
   </si>
 </sst>
 </file>
@@ -166,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,11 +359,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +441,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,11 +771,2834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F05B28-24A5-471C-957E-92267C8D71E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AC424-AF11-40B8-AC0B-29A65BE65608}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="Y1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="15"/>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="15"/>
+      <c r="AE4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="15"/>
+      <c r="AE5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="15"/>
+      <c r="AE6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.59305555555555567</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="15"/>
+      <c r="AE7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.63194444444444453</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.65694444444444455</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="15"/>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.69583333333333341</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="15"/>
+      <c r="AE9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.70972222222222237</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="15"/>
+      <c r="AE10" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.74861111111111123</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.77361111111111125</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="15"/>
+      <c r="AE11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.81250000000000011</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="15"/>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.82638888888888906</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.85138888888888897</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="1">
+        <v>11</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="15"/>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.86527777777777792</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.89027777777777795</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="S14" s="1">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="15"/>
+      <c r="AE14" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.90416666666666679</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.92916666666666681</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="S15" s="1">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="15"/>
+      <c r="AE15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.94305555555555576</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.96805555555555567</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="S16" s="1">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="15"/>
+      <c r="AE16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.98194444444444462</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1.0069444444444446</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="S17" s="1">
+        <v>15</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="15"/>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0208333333333335</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0458333333333336</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="S18" s="1">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0597222222222225</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.0847222222222224</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="S19" s="1">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0986111111111114</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.1236111111111113</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="S20" s="1">
+        <v>18</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.1375000000000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.1625000000000003</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="1">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AE1:AG1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F05B28-24A5-471C-957E-92267C8D71E9}">
+  <dimension ref="A1:AO25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
+    <col min="37" max="39" width="8.88671875" style="2"/>
+    <col min="40" max="40" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="M1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="Y1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+      <c r="AK1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="AM3" s="25">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AE4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="25">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AE5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AK5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="25">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="AN5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AK6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="25">
+        <v>0.14722222222222225</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AK7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="25">
+        <v>0.18611111111111114</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.21111111111111114</v>
+      </c>
+      <c r="AN7" s="23"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AK8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="25">
+        <v>0.22500000000000003</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="AN8" s="23"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AK9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>0.26388888888888895</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0.28888888888888897</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AE10" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23"/>
+      <c r="S11" s="1">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AE11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23"/>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="S13" s="1">
+        <v>11</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="AH13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="S14" s="1">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="AH14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="23"/>
+      <c r="S15" s="1">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="S16" s="1">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="1">
+        <v>15</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="Y17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AB17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="4"/>
+      <c r="S18" s="1">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="AE18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="S19" s="1">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="S20" s="1">
+        <v>18</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="S21" s="1">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B8CE7-00D9-4394-B5D8-9660AA9EADCB}">
+  <dimension ref="A1:AJ25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,34 +3639,34 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="G1" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="M1" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="S1" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
       <c r="Y1" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="18"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="14"/>
       <c r="AE1" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="19"/>
       <c r="AG1" s="20"/>
@@ -822,9 +3748,6 @@
       <c r="I3" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
@@ -834,9 +3757,7 @@
       <c r="O3" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="P3" s="4"/>
       <c r="S3" s="1">
         <v>1</v>
       </c>
@@ -845,9 +3766,6 @@
       </c>
       <c r="U3" s="3">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
@@ -889,9 +3807,6 @@
       <c r="I4" s="3">
         <v>0.49652777777777773</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
@@ -901,9 +3816,7 @@
       <c r="O4" s="3">
         <v>0.55902777777777779</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="P4" s="4"/>
       <c r="S4" s="1">
         <v>2</v>
       </c>
@@ -912,12 +3825,6 @@
       </c>
       <c r="U4" s="3">
         <v>0.49652777777777773</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Y4" s="1">
         <v>2</v>
@@ -959,9 +3866,6 @@
       <c r="I5" s="3">
         <v>0.5347222222222221</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
@@ -971,12 +3875,7 @@
       <c r="O5" s="3">
         <v>0.59722222222222221</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="P5" s="4"/>
       <c r="S5" s="1">
         <v>3</v>
       </c>
@@ -1026,9 +3925,6 @@
       <c r="I6" s="3">
         <v>0.57291666666666652</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M6" s="1">
         <v>4</v>
       </c>
@@ -1038,12 +3934,7 @@
       <c r="O6" s="3">
         <v>0.63541666666666674</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="P6" s="4"/>
       <c r="S6" s="1">
         <v>4</v>
       </c>
@@ -1093,9 +3984,6 @@
       <c r="I7" s="3">
         <v>0.61111111111111094</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="1">
         <v>5</v>
       </c>
@@ -1105,12 +3993,7 @@
       <c r="O7" s="3">
         <v>0.67361111111111116</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="S7" s="1">
         <v>5</v>
       </c>
@@ -1160,9 +4043,6 @@
       <c r="I8" s="3">
         <v>0.64930555555555536</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="1">
         <v>6</v>
       </c>
@@ -1172,12 +4052,7 @@
       <c r="O8" s="3">
         <v>0.71180555555555558</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="P8" s="4"/>
       <c r="S8" s="1">
         <v>6</v>
       </c>
@@ -1227,9 +4102,6 @@
       <c r="I9" s="3">
         <v>0.68749999999999978</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="1">
         <v>7</v>
       </c>
@@ -1239,12 +4111,7 @@
       <c r="O9" s="3">
         <v>0.75</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="P9" s="4"/>
       <c r="S9" s="1">
         <v>7</v>
       </c>
@@ -1294,9 +4161,6 @@
       <c r="I10" s="3">
         <v>0.72569444444444409</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="1">
         <v>8</v>
       </c>
@@ -1306,9 +4170,7 @@
       <c r="O10" s="3">
         <v>0.78819444444444442</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="P10" s="4"/>
       <c r="S10" s="1">
         <v>8</v>
       </c>
@@ -1358,9 +4220,6 @@
       <c r="I11" s="3">
         <v>0.76388888888888851</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M11" s="1">
         <v>9</v>
       </c>
@@ -1370,9 +4229,7 @@
       <c r="O11" s="3">
         <v>0.82638888888888884</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="P11" s="4"/>
       <c r="S11" s="1">
         <v>9</v>
       </c>
@@ -1422,9 +4279,6 @@
       <c r="I12" s="3">
         <v>0.80208333333333293</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="1">
         <v>10</v>
       </c>
@@ -1434,9 +4288,7 @@
       <c r="O12" s="3">
         <v>0.86458333333333326</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="P12" s="4"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -1486,9 +4338,6 @@
       <c r="I13" s="3">
         <v>0.84027777777777724</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M13" s="1">
         <v>11</v>
       </c>
@@ -1498,12 +4347,7 @@
       <c r="O13" s="3">
         <v>0.90277777777777768</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="P13" s="4"/>
       <c r="S13" s="1">
         <v>11</v>
       </c>
@@ -1553,12 +4397,6 @@
       <c r="I14" s="3">
         <v>0.87847222222222165</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="1">
         <v>12</v>
       </c>
@@ -1618,12 +4456,6 @@
       <c r="I15" s="3">
         <v>0.91666666666666607</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>6</v>
-      </c>
       <c r="M15" s="1">
         <v>13</v>
       </c>
@@ -1683,12 +4515,6 @@
       <c r="I16" s="3">
         <v>0.95486111111111049</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="M16" s="1">
         <v>14</v>
       </c>
@@ -1698,12 +4524,7 @@
       <c r="O16" s="3">
         <v>1.0173611111111109</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="P16" s="4"/>
       <c r="S16" s="1">
         <v>14</v>
       </c>
@@ -1753,12 +4574,6 @@
       <c r="I17" s="3">
         <v>0.99305555555555491</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="5">
         <v>15</v>
       </c>
@@ -1817,12 +4632,6 @@
       </c>
       <c r="I18" s="3">
         <v>1.0312499999999993</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
@@ -1866,12 +4675,6 @@
       <c r="I19" s="3">
         <v>1.0694444444444438</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1913,9 +4716,6 @@
       <c r="I20" s="3">
         <v>1.1076388888888884</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1956,1301 +4756,6 @@
       </c>
       <c r="I21" s="3">
         <v>1.145833333333333</v>
-      </c>
-      <c r="Q21" s="14"/>
-      <c r="S21" s="1">
-        <v>19</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1.145833333333333</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>19</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>1.145833333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B8CE7-00D9-4394-B5D8-9660AA9EADCB}">
-  <dimension ref="A1:AJ25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
-    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
-    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
-    <col min="31" max="31" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="M1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="S1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="Y1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="14"/>
-      <c r="AE1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="14"/>
-      <c r="AE2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="15"/>
-      <c r="AE3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="S4" s="1">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="15"/>
-      <c r="AE4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0.49652777777777773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.5347222222222221</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.5347222222222221</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="S5" s="1">
-        <v>3</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0.5347222222222221</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="15"/>
-      <c r="AE5" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0.5347222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.55208333333333326</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.57291666666666652</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.55208333333333326</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.57291666666666652</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.61458333333333326</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.63541666666666674</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="S6" s="1">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.55208333333333326</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0.57291666666666652</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0.61458333333333326</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>0.63541666666666674</v>
-      </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="15"/>
-      <c r="AE6" s="11">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>0.55208333333333326</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0.57291666666666652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.59027777777777768</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.61111111111111094</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.59027777777777768</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.61111111111111094</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="S7" s="1">
-        <v>5</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0.59027777777777768</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0.61111111111111094</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="15"/>
-      <c r="AE7" s="11">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0.59027777777777768</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0.61111111111111094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.64930555555555536</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.64930555555555536</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.71180555555555558</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="S8" s="1">
-        <v>6</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0.64930555555555536</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0.71180555555555558</v>
-      </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="15"/>
-      <c r="AE8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0.64930555555555536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.68749999999999978</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.68749999999999978</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>7</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="S9" s="1">
-        <v>7</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0.68749999999999978</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="15"/>
-      <c r="AE9" s="11">
-        <v>7</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0.68749999999999978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.70486111111111105</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.72569444444444409</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.70486111111111105</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.72569444444444409</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.76736111111111105</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.78819444444444442</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="S10" s="1">
-        <v>8</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.70486111111111105</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0.72569444444444409</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0.76736111111111105</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>0.78819444444444442</v>
-      </c>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="15"/>
-      <c r="AE10" s="11">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0.70486111111111105</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0.72569444444444409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.76388888888888851</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.76388888888888851</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>9</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="S11" s="1">
-        <v>9</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0.76388888888888851</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="15"/>
-      <c r="AE11" s="11">
-        <v>9</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0.76388888888888851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.80208333333333293</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.80208333333333293</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.84374999999999989</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.86458333333333326</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="S12" s="1">
-        <v>10</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0.80208333333333293</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0.84374999999999989</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>0.86458333333333326</v>
-      </c>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="15"/>
-      <c r="AE12" s="11">
-        <v>10</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0.80208333333333293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.84027777777777724</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.84027777777777724</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>11</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.88194444444444442</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.90277777777777768</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="S13" s="1">
-        <v>11</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0.84027777777777724</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0.88194444444444442</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>0.90277777777777768</v>
-      </c>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="15"/>
-      <c r="AE13" s="11">
-        <v>11</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0.81944444444444442</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0.84027777777777724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.87847222222222165</v>
-      </c>
-      <c r="G14" s="1">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.87847222222222165</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.9409722222222221</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="S14" s="1">
-        <v>12</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0.87847222222222165</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>0.9409722222222221</v>
-      </c>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="15"/>
-      <c r="AE14" s="11">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>0.87847222222222165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.91666666666666607</v>
-      </c>
-      <c r="G15" s="1">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.91666666666666607</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="1">
-        <v>13</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.95833333333333326</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.97916666666666652</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="S15" s="1">
-        <v>13</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0.91666666666666607</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0.95833333333333326</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>0.97916666666666652</v>
-      </c>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="15"/>
-      <c r="AE15" s="11">
-        <v>13</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>0.91666666666666607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.93402777777777768</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.95486111111111049</v>
-      </c>
-      <c r="G16" s="1">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.93402777777777768</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.95486111111111049</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="1">
-        <v>14</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.99652777777777768</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1.0173611111111109</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="S16" s="1">
-        <v>14</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.93402777777777768</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.95486111111111049</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0.99652777777777768</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>1.0173611111111109</v>
-      </c>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="15"/>
-      <c r="AE16" s="11">
-        <v>14</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0.93402777777777768</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0.95486111111111049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.99305555555555491</v>
-      </c>
-      <c r="G17" s="1">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.99305555555555491</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="5">
-        <v>15</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1.0347222222222221</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1.0555555555555554</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="S17" s="1">
-        <v>15</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0.99305555555555491</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1.0347222222222221</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1.0555555555555554</v>
-      </c>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="15"/>
-      <c r="AE17" s="11">
-        <v>15</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>0.99305555555555491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.0104166666666665</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.0312499999999993</v>
-      </c>
-      <c r="G18" s="1">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.0104166666666665</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1.0312499999999993</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="4"/>
-      <c r="S18" s="1">
-        <v>16</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1.0104166666666665</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1.0312499999999993</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>16</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>1.0104166666666665</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>1.0312499999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.0486111111111112</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.0694444444444438</v>
-      </c>
-      <c r="G19" s="1">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1.0486111111111112</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1.0694444444444438</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="S19" s="1">
-        <v>17</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1.0486111111111112</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1.0694444444444438</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>17</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>1.0486111111111112</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>1.0694444444444438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1.0868055555555554</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.1076388888888884</v>
-      </c>
-      <c r="G20" s="1">
-        <v>18</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1.0868055555555554</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1.1076388888888884</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="S20" s="1">
-        <v>18</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1.0868055555555554</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1.1076388888888884</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>18</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>1.0868055555555554</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>1.1076388888888884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.145833333333333</v>
-      </c>
-      <c r="G21" s="1">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1.1249999999999996</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1.145833333333333</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="S21" s="1">

--- a/TimeBoxing.xlsx
+++ b/TimeBoxing.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\SplittingTheWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CF7F8-07B7-4401-85FA-9E7C8015B58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC26A2D-9C4A-4D07-A2CD-57A5204A7BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{276AB423-533A-4E40-B8C0-D8A503FE0BBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{276AB423-533A-4E40-B8C0-D8A503FE0BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="3-26" sheetId="5" r:id="rId1"/>
-    <sheet name="3-20" sheetId="3" r:id="rId2"/>
-    <sheet name="Template" sheetId="4" r:id="rId3"/>
+    <sheet name="4-1" sheetId="6" r:id="rId2"/>
+    <sheet name="3-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Template" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>TB</t>
   </si>
@@ -218,13 +219,175 @@
   </si>
   <si>
     <t>Chunk Code</t>
+  </si>
+  <si>
+    <t>Read textbook</t>
+  </si>
+  <si>
+    <t>Work on jupyter notebook</t>
+  </si>
+  <si>
+    <t>Discussion post UL SL</t>
+  </si>
+  <si>
+    <t>Discussion post Transformation</t>
+  </si>
+  <si>
+    <t>EAS Journal</t>
+  </si>
+  <si>
+    <t>History Book</t>
+  </si>
+  <si>
+    <t>KBA ppt</t>
+  </si>
+  <si>
+    <t>Research book</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>weekly check in</t>
+  </si>
+  <si>
+    <t>Lasagna</t>
+  </si>
+  <si>
+    <t>test for chunk</t>
+  </si>
+  <si>
+    <t>test for map</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>textbook and jupyter 3</t>
+  </si>
+  <si>
+    <t>Discussion week 4</t>
+  </si>
+  <si>
+    <t>project topic selection</t>
+  </si>
+  <si>
+    <t>chapter 4</t>
+  </si>
+  <si>
+    <t>Lab 4</t>
+  </si>
+  <si>
+    <t>Deep learning model quad chart</t>
+  </si>
+  <si>
+    <t>chapter 5</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>methodology</t>
+  </si>
+  <si>
+    <t>discussion week 5</t>
+  </si>
+  <si>
+    <t>images for thesis</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>discussion week 6</t>
+  </si>
+  <si>
+    <t>further research</t>
+  </si>
+  <si>
+    <t>lmodel evaluation and improvement 5</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>ai topic mind map 5</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>chapter 6</t>
+  </si>
+  <si>
+    <t>format images</t>
+  </si>
+  <si>
+    <t>format code section</t>
+  </si>
+  <si>
+    <t>compile results</t>
+  </si>
+  <si>
+    <t>find room for error</t>
+  </si>
+  <si>
+    <t>discussion 6</t>
+  </si>
+  <si>
+    <t>Alogirthm chains and pipelines 6</t>
+  </si>
+  <si>
+    <t>ai algoirthm quad chart 6</t>
+  </si>
+  <si>
+    <t>chapter 7</t>
+  </si>
+  <si>
+    <t>discussion week 7</t>
+  </si>
+  <si>
+    <t>defend thesis</t>
+  </si>
+  <si>
+    <t>working with text data 7</t>
+  </si>
+  <si>
+    <t>future of ai presentation</t>
+  </si>
+  <si>
+    <t>chapter 8</t>
+  </si>
+  <si>
+    <t>discussion week 8</t>
+  </si>
+  <si>
+    <t>Ai final project</t>
+  </si>
+  <si>
+    <t>Test for chunk</t>
+  </si>
+  <si>
+    <t>discussion post</t>
+  </si>
+  <si>
+    <t>research book</t>
+  </si>
+  <si>
+    <t>so much fucking work</t>
+  </si>
+  <si>
+    <t>KBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +395,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,18 +606,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,6 +619,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AC424-AF11-40B8-AC0B-29A65BE65608}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,44 +996,50 @@
     <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
     <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
     <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="2"/>
+    <col min="37" max="37" width="8.88671875" style="2"/>
+    <col min="38" max="38" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.44140625" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="18"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="14"/>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,8 +1096,16 @@
       <c r="AG2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AM2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -916,8 +1115,8 @@
       <c r="C3" s="3">
         <v>0.46249999999999997</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -927,7 +1126,7 @@
       <c r="I3" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="19"/>
       <c r="M3" s="1">
         <v>1</v>
       </c>
@@ -967,8 +1166,19 @@
       <c r="AG3" s="3">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -978,8 +1188,8 @@
       <c r="C4" s="3">
         <v>0.50138888888888888</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -989,7 +1199,7 @@
       <c r="I4" s="3">
         <v>0.49652777777777773</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="19"/>
       <c r="M4" s="1">
         <v>2</v>
       </c>
@@ -1029,8 +1239,13 @@
       <c r="AG4" s="3">
         <v>0.49652777777777773</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AN4" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1040,8 +1255,8 @@
       <c r="C5" s="3">
         <v>0.54027777777777775</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -1051,7 +1266,7 @@
       <c r="I5" s="3">
         <v>0.5347222222222221</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="19"/>
       <c r="M5" s="1">
         <v>3</v>
       </c>
@@ -1091,8 +1306,16 @@
       <c r="AG5" s="3">
         <v>0.5347222222222221</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AL5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1102,8 +1325,8 @@
       <c r="C6" s="3">
         <v>0.57916666666666672</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="G6" s="1">
         <v>4</v>
       </c>
@@ -1113,7 +1336,7 @@
       <c r="I6" s="3">
         <v>0.57291666666666652</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="19"/>
       <c r="M6" s="1">
         <v>4</v>
       </c>
@@ -1153,8 +1376,16 @@
       <c r="AG6" s="3">
         <v>0.57291666666666652</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AM6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1164,8 +1395,8 @@
       <c r="C7" s="3">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="G7" s="1">
         <v>5</v>
       </c>
@@ -1175,7 +1406,7 @@
       <c r="I7" s="3">
         <v>0.61111111111111094</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="19"/>
       <c r="M7" s="1">
         <v>5</v>
       </c>
@@ -1215,8 +1446,16 @@
       <c r="AG7" s="3">
         <v>0.61111111111111094</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AM7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1226,10 +1465,10 @@
       <c r="C8" s="3">
         <v>0.65694444444444455</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="19"/>
       <c r="G8" s="1">
         <v>6</v>
       </c>
@@ -1239,7 +1478,7 @@
       <c r="I8" s="3">
         <v>0.64930555555555536</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="19"/>
       <c r="M8" s="1">
         <v>6</v>
       </c>
@@ -1279,8 +1518,16 @@
       <c r="AG8" s="3">
         <v>0.64930555555555536</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AL8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1302,7 +1549,7 @@
       <c r="I9" s="3">
         <v>0.68749999999999978</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="19"/>
       <c r="M9" s="1">
         <v>7</v>
       </c>
@@ -1342,8 +1589,16 @@
       <c r="AG9" s="3">
         <v>0.68749999999999978</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AM9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1365,7 +1620,7 @@
       <c r="I10" s="3">
         <v>0.72569444444444409</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="19"/>
       <c r="M10" s="1">
         <v>8</v>
       </c>
@@ -1405,8 +1660,19 @@
       <c r="AG10" s="3">
         <v>0.72569444444444409</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AL10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1428,7 +1694,7 @@
       <c r="I11" s="3">
         <v>0.76388888888888851</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="19"/>
       <c r="M11" s="1">
         <v>9</v>
       </c>
@@ -1438,7 +1704,7 @@
       <c r="O11" s="3">
         <v>0.82638888888888884</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="S11" s="1">
@@ -1470,8 +1736,13 @@
       <c r="AG11" s="3">
         <v>0.76388888888888851</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AN11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1496,7 +1767,7 @@
       <c r="I12" s="3">
         <v>0.80208333333333293</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="19"/>
       <c r="M12" s="1">
         <v>10</v>
       </c>
@@ -1506,7 +1777,7 @@
       <c r="O12" s="3">
         <v>0.86458333333333326</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="18" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="1">
@@ -1538,8 +1809,13 @@
       <c r="AG12" s="3">
         <v>0.80208333333333293</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AN12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1564,7 +1840,7 @@
       <c r="I13" s="3">
         <v>0.84027777777777724</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="19"/>
       <c r="M13" s="1">
         <v>11</v>
       </c>
@@ -1574,12 +1850,10 @@
       <c r="O13" s="3">
         <v>0.90277777777777768</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q13" s="4"/>
       <c r="S13" s="1">
         <v>11</v>
       </c>
@@ -1609,8 +1883,13 @@
       <c r="AG13" s="3">
         <v>0.84027777777777724</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AN13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1632,7 +1911,7 @@
       <c r="I14" s="3">
         <v>0.87847222222222165</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="19"/>
       <c r="M14" s="1">
         <v>12</v>
       </c>
@@ -1641,6 +1920,9 @@
       </c>
       <c r="O14" s="3">
         <v>0.9409722222222221</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="S14" s="1">
         <v>12</v>
@@ -1671,8 +1953,16 @@
       <c r="AG14" s="3">
         <v>0.87847222222222165</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AM14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1694,7 +1984,7 @@
       <c r="I15" s="3">
         <v>0.91666666666666607</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="19"/>
       <c r="M15" s="1">
         <v>13</v>
       </c>
@@ -1703,6 +1993,12 @@
       </c>
       <c r="O15" s="3">
         <v>0.97916666666666652</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="S15" s="1">
         <v>13</v>
@@ -1728,13 +2024,22 @@
         <v>13</v>
       </c>
       <c r="AF15" s="3">
-        <v>0.89583333333333326</v>
+        <v>0.90069444444444446</v>
       </c>
       <c r="AG15" s="3">
-        <v>0.91666666666666607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1756,7 +2061,7 @@
       <c r="I16" s="3">
         <v>0.95486111111111049</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="19"/>
       <c r="M16" s="1">
         <v>14</v>
       </c>
@@ -1765,6 +2070,12 @@
       </c>
       <c r="O16" s="3">
         <v>1.0173611111111109</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="S16" s="1">
         <v>14</v>
@@ -1790,20 +2101,29 @@
         <v>14</v>
       </c>
       <c r="AF16" s="3">
-        <v>0.93402777777777768</v>
+        <v>0.93888888888888899</v>
       </c>
       <c r="AG16" s="3">
-        <v>0.95486111111111049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>0.95972222222222237</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>0.98194444444444462</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>1.0069444444444446</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1821,14 +2141,14 @@
       <c r="I17" s="3">
         <v>0.99305555555555491</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="19"/>
       <c r="M17" s="5">
         <v>15</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="3">
         <v>1.0347222222222221</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="3">
         <v>1.0555555555555554</v>
       </c>
       <c r="S17" s="1">
@@ -1855,13 +2175,19 @@
         <v>15</v>
       </c>
       <c r="AF17" s="3">
-        <v>0.9722222222222221</v>
+        <v>0.97708333333333353</v>
       </c>
       <c r="AG17" s="3">
-        <v>0.99305555555555491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+        <v>0.99791666666666679</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1886,10 +2212,14 @@
       <c r="I18" s="3">
         <v>1.0312499999999993</v>
       </c>
-      <c r="J18" s="23"/>
+      <c r="J18" s="19"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="3">
+        <v>1.0729166666666665</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.0937499999999998</v>
+      </c>
       <c r="S18" s="1">
         <v>16</v>
       </c>
@@ -1903,13 +2233,19 @@
         <v>16</v>
       </c>
       <c r="AF18" s="3">
-        <v>1.0104166666666665</v>
+        <v>1.0152777777777779</v>
       </c>
       <c r="AG18" s="3">
-        <v>1.0312499999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+        <v>1.0361111111111114</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1928,10 +2264,13 @@
       <c r="I19" s="3">
         <v>1.0694444444444438</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="J19" s="19"/>
+      <c r="N19" s="3">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1.1319444444444442</v>
+      </c>
       <c r="S19" s="1">
         <v>17</v>
       </c>
@@ -1945,13 +2284,19 @@
         <v>17</v>
       </c>
       <c r="AF19" s="3">
-        <v>1.0486111111111112</v>
+        <v>1.0534722222222226</v>
       </c>
       <c r="AG19" s="3">
-        <v>1.0694444444444438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+        <v>1.0743055555555558</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1970,10 +2315,13 @@
       <c r="I20" s="3">
         <v>1.1076388888888884</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="J20" s="19"/>
+      <c r="N20" s="3">
+        <v>1.1493055555555554</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.1701388888888886</v>
+      </c>
       <c r="S20" s="1">
         <v>18</v>
       </c>
@@ -1987,13 +2335,19 @@
         <v>18</v>
       </c>
       <c r="AF20" s="3">
-        <v>1.0868055555555554</v>
+        <v>1.091666666666667</v>
       </c>
       <c r="AG20" s="3">
-        <v>1.1076388888888884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+        <v>1.1125000000000003</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2012,12 +2366,12 @@
       <c r="I21" s="3">
         <v>1.145833333333333</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="P21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>15</v>
+      <c r="J21" s="19"/>
+      <c r="N21" s="3">
+        <v>1.1874999999999996</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.208333333333333</v>
       </c>
       <c r="S21" s="1">
         <v>19</v>
@@ -2032,39 +2386,1711 @@
         <v>19</v>
       </c>
       <c r="AF21" s="3">
+        <v>1.1298611111111114</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1.1506944444444449</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN39" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN44" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN45" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Y1:AA1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4484F640-6B0B-4602-A475-70B3B191720E}">
+  <dimension ref="A1:AN49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.88671875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.5546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="3.33203125" style="17" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="2"/>
+    <col min="38" max="38" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.44140625" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="G1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="M1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="S1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="Y1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AN2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="15"/>
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.99722222222222223</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="15"/>
+      <c r="AE4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AN4" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.0361111111111112</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0611111111111111</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="29"/>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="15"/>
+      <c r="AE5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.5347222222222221</v>
+      </c>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AN5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="29"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.63541666666666674</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="15"/>
+      <c r="AE6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.55208333333333326</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.57291666666666652</v>
+      </c>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AN6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.1138888888888889</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.1388888888888891</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="15"/>
+      <c r="AE7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.59027777777777768</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.61111111111111094</v>
+      </c>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AN7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.1527777777777779</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.177777777777778</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="29"/>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="15"/>
+      <c r="AE8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.64930555555555536</v>
+      </c>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AL8" s="4"/>
+      <c r="AN8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.1916666666666669</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="S9" s="1">
+        <v>7</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="15"/>
+      <c r="AE9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AN9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.2555555555555558</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="29"/>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="15"/>
+      <c r="AE10" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.72569444444444409</v>
+      </c>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AN10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.2694444444444446</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.2944444444444447</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29"/>
+      <c r="S11" s="1">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="15"/>
+      <c r="AE11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.76388888888888851</v>
+      </c>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AN11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.3083333333333336</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="29"/>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0.86458333333333326</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="15"/>
+      <c r="AE12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.80208333333333293</v>
+      </c>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AN12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.3472222222222223</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.3722222222222225</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+      <c r="S13" s="1">
+        <v>11</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="15"/>
+      <c r="AE13" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AN13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.3861111111111113</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.4111111111111114</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="S14" s="1">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.9409722222222221</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="15"/>
+      <c r="AE14" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.87847222222222165</v>
+      </c>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AN14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4250000000000003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="S15" s="1">
+        <v>13</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.95833333333333326</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0.97916666666666652</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="15"/>
+      <c r="AE15" s="11">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AN15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.463888888888889</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.4888888888888892</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="S16" s="1">
+        <v>14</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.93402777777777768</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.95486111111111049</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0.99652777777777768</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1.0173611111111109</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="15"/>
+      <c r="AE16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0.93888888888888899</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.95972222222222237</v>
+      </c>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AN16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.502777777777778</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.5277777777777781</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="S17" s="1">
+        <v>15</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.99305555555555491</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1.0347222222222221</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="15"/>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0.97708333333333353</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.99791666666666679</v>
+      </c>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AN17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.541666666666667</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.5666666666666669</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="3">
+        <v>1.0729166666666665</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.0937499999999998</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="S18" s="1">
+        <v>16</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.0104166666666665</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.0312499999999993</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1.0152777777777779</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.0361111111111114</v>
+      </c>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AN18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.5805555555555557</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.6055555555555558</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="N19" s="3">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1.1319444444444442</v>
+      </c>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="S19" s="1">
+        <v>17</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.0694444444444438</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0534722222222226</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1.0743055555555558</v>
+      </c>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AN19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.6194444444444447</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.6444444444444448</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="N20" s="3">
+        <v>1.1493055555555554</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.1701388888888886</v>
+      </c>
+      <c r="S20" s="1">
+        <v>18</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.0868055555555554</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1.1076388888888884</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1.091666666666667</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1.1125000000000003</v>
+      </c>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AN20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.6583333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.6833333333333336</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
         <v>1.1249999999999996</v>
       </c>
+      <c r="I21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="N21" s="3">
+        <v>1.1874999999999996</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.208333333333333</v>
+      </c>
+      <c r="S21" s="1">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1.145833333333333</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1.1298611111111114</v>
+      </c>
       <c r="AG21" s="3">
-        <v>1.145833333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="P25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>28</v>
+        <v>1.1506944444444449</v>
+      </c>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AN21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN37" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN39" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN44" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN45" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="40:40" x14ac:dyDescent="0.3">
+      <c r="AN49" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2077,11 +4103,10 @@
     <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F05B28-24A5-471C-957E-92267C8D71E9}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
@@ -2129,38 +4154,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="18"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="14"/>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
       <c r="AK1" s="2" t="s">
         <v>50</v>
       </c>
@@ -2263,7 +4288,7 @@
       <c r="O3" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="S3" s="1">
@@ -2293,15 +4318,15 @@
       <c r="AG3" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
       <c r="AK3" s="1">
         <v>1</v>
       </c>
       <c r="AL3" s="3">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AM3" s="21">
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="AN3" s="16" t="s">
@@ -2370,12 +4395,12 @@
       <c r="AG4" s="3">
         <v>0.49652777777777773</v>
       </c>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
       <c r="AK4" s="1">
         <v>2</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AL4" s="21">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AM4" s="3">
@@ -2419,7 +4444,7 @@
       <c r="O5" s="3">
         <v>0.59722222222222221</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="1">
@@ -2450,12 +4475,12 @@
       <c r="AG5" s="3">
         <v>0.5347222222222221</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
       <c r="AK5" s="1">
         <v>3</v>
       </c>
-      <c r="AL5" s="25">
+      <c r="AL5" s="21">
         <v>0.10833333333333334</v>
       </c>
       <c r="AM5" s="3">
@@ -2496,7 +4521,7 @@
       <c r="O6" s="3">
         <v>0.63541666666666674</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="1">
@@ -2526,12 +4551,12 @@
       <c r="AG6" s="3">
         <v>0.57291666666666652</v>
       </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
       <c r="AK6" s="1">
         <v>4</v>
       </c>
-      <c r="AL6" s="25">
+      <c r="AL6" s="21">
         <v>0.14722222222222225</v>
       </c>
       <c r="AM6" s="3">
@@ -2572,7 +4597,7 @@
       <c r="O7" s="3">
         <v>0.67361111111111116</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="18" t="s">
         <v>24</v>
       </c>
       <c r="S7" s="1">
@@ -2605,18 +4630,18 @@
       <c r="AG7" s="3">
         <v>0.61111111111111094</v>
       </c>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
       <c r="AK7" s="1">
         <v>5</v>
       </c>
-      <c r="AL7" s="25">
+      <c r="AL7" s="21">
         <v>0.18611111111111114</v>
       </c>
       <c r="AM7" s="3">
         <v>0.21111111111111114</v>
       </c>
-      <c r="AN7" s="23"/>
+      <c r="AN7" s="19"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2649,7 +4674,7 @@
       <c r="O8" s="3">
         <v>0.71180555555555558</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="16" t="s">
@@ -2686,18 +4711,18 @@
       <c r="AG8" s="3">
         <v>0.64930555555555536</v>
       </c>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
       <c r="AK8" s="1">
         <v>6</v>
       </c>
-      <c r="AL8" s="25">
+      <c r="AL8" s="21">
         <v>0.22500000000000003</v>
       </c>
       <c r="AM8" s="3">
         <v>0.25000000000000006</v>
       </c>
-      <c r="AN8" s="23"/>
+      <c r="AN8" s="19"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2730,7 +4755,7 @@
       <c r="O9" s="3">
         <v>0.75</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="1">
@@ -2763,12 +4788,12 @@
       <c r="AG9" s="3">
         <v>0.68749999999999978</v>
       </c>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
       <c r="AK9" s="1">
         <v>7</v>
       </c>
-      <c r="AL9" s="25">
+      <c r="AL9" s="21">
         <v>0.26388888888888895</v>
       </c>
       <c r="AM9" s="3">
@@ -2809,8 +4834,8 @@
       <c r="O10" s="3">
         <v>0.78819444444444442</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
       <c r="S10" s="1">
         <v>8</v>
       </c>
@@ -2842,10 +4867,10 @@
       <c r="AG10" s="3">
         <v>0.72569444444444409</v>
       </c>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="25"/>
+      <c r="AL10" s="21"/>
       <c r="AM10" s="3"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -2879,8 +4904,8 @@
       <c r="O11" s="3">
         <v>0.82638888888888884</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="19"/>
       <c r="S11" s="1">
         <v>9</v>
       </c>
@@ -2912,10 +4937,10 @@
       <c r="AG11" s="3">
         <v>0.76388888888888851</v>
       </c>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="25"/>
+      <c r="AL11" s="21"/>
       <c r="AM11" s="3"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -2949,8 +4974,8 @@
       <c r="O12" s="3">
         <v>0.86458333333333326</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19"/>
       <c r="S12" s="1">
         <v>10</v>
       </c>
@@ -2985,7 +5010,7 @@
         <v>47</v>
       </c>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="25"/>
+      <c r="AL12" s="21"/>
       <c r="AM12" s="3"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -3019,8 +5044,8 @@
       <c r="O13" s="3">
         <v>0.90277777777777768</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
       <c r="S13" s="1">
         <v>11</v>
       </c>
@@ -3055,7 +5080,7 @@
         <v>48</v>
       </c>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="25"/>
+      <c r="AL13" s="21"/>
       <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -3092,8 +5117,8 @@
       <c r="O14" s="3">
         <v>0.9409722222222221</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
       <c r="S14" s="1">
         <v>12</v>
       </c>
@@ -3134,7 +5159,7 @@
         <v>49</v>
       </c>
       <c r="AK14" s="1"/>
-      <c r="AL14" s="25"/>
+      <c r="AL14" s="21"/>
       <c r="AM14" s="3"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -3171,8 +5196,8 @@
       <c r="O15" s="3">
         <v>0.97916666666666652</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19"/>
       <c r="S15" s="1">
         <v>13</v>
       </c>
@@ -3206,10 +5231,10 @@
       <c r="AG15" s="3">
         <v>0.91666666666666607</v>
       </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="25"/>
+      <c r="AL15" s="21"/>
       <c r="AM15" s="3"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -3246,8 +5271,8 @@
       <c r="O16" s="3">
         <v>1.0173611111111109</v>
       </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
       <c r="S16" s="1">
         <v>14</v>
       </c>
@@ -3257,8 +5282,8 @@
       <c r="U16" s="3">
         <v>0.95486111111111049</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
       <c r="Y16" s="1">
         <v>14</v>
       </c>
@@ -3271,7 +5296,7 @@
       <c r="AB16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AC16" s="22" t="s">
+      <c r="AC16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="AE16" s="11">
@@ -3283,8 +5308,8 @@
       <c r="AG16" s="3">
         <v>0.95486111111111049</v>
       </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -3320,8 +5345,8 @@
       <c r="O17" s="6">
         <v>1.0555555555555554</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="19"/>
       <c r="S17" s="1">
         <v>15</v>
       </c>
@@ -3331,8 +5356,8 @@
       <c r="U17" s="3">
         <v>0.99305555555555491</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
       <c r="Y17" s="1">
         <v>15</v>
       </c>
@@ -3342,7 +5367,7 @@
       <c r="AA17" s="3">
         <v>1.0555555555555554</v>
       </c>
-      <c r="AB17" s="22" t="s">
+      <c r="AB17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="AC17" s="16" t="s">
@@ -3357,8 +5382,8 @@
       <c r="AG17" s="3">
         <v>0.99305555555555491</v>
       </c>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -3398,8 +5423,8 @@
       <c r="U18" s="3">
         <v>1.0312499999999993</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
       <c r="AE18" s="1">
         <v>16</v>
       </c>
@@ -3409,8 +5434,8 @@
       <c r="AG18" s="3">
         <v>1.0312499999999993</v>
       </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -3461,8 +5486,8 @@
       <c r="AG19" s="3">
         <v>1.0694444444444438</v>
       </c>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3513,8 +5538,8 @@
       <c r="AG20" s="3">
         <v>1.1076388888888884</v>
       </c>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -3560,8 +5585,8 @@
       <c r="AG21" s="3">
         <v>1.145833333333333</v>
       </c>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="P22" s="4"/>
@@ -3593,7 +5618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B8CE7-00D9-4394-B5D8-9660AA9EADCB}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
@@ -3638,38 +5663,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="18"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="14"/>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/TimeBoxing.xlsx
+++ b/TimeBoxing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\SplittingTheWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC26A2D-9C4A-4D07-A2CD-57A5204A7BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5920FA2B-550F-4B2A-9BF6-4082FD134768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{276AB423-533A-4E40-B8C0-D8A503FE0BBC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="119">
   <si>
     <t>TB</t>
   </si>
@@ -381,12 +381,30 @@
   </si>
   <si>
     <t>KBA</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>MapGenerator</t>
+  </si>
+  <si>
+    <t>AI Class</t>
+  </si>
+  <si>
+    <t>Tacos?</t>
+  </si>
+  <si>
+    <t>sources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +659,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2556,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4484F640-6B0B-4602-A475-70B3B191720E}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2665,6 +2689,7 @@
       <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="P2" s="32"/>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2728,13 +2753,15 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="P3" s="4"/>
+      <c r="N3" s="31">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="O3" s="31">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="S3" s="1">
         <v>1</v>
       </c>
@@ -2797,13 +2824,15 @@
       <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="3">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="P4" s="4"/>
+      <c r="N4" s="31">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="O4" s="31">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="S4" s="1">
         <v>2</v>
       </c>
@@ -2865,13 +2894,15 @@
       <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="3">
-        <v>0.57638888888888884</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="P5" s="4"/>
+      <c r="N5" s="31">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="S5" s="1">
         <v>3</v>
       </c>
@@ -2933,13 +2964,15 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="3">
-        <v>0.61458333333333326</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.63541666666666674</v>
-      </c>
-      <c r="P6" s="4"/>
+      <c r="N6" s="31">
+        <v>0.77430555555555536</v>
+      </c>
+      <c r="O6" s="31">
+        <v>0.79861111111111094</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="S6" s="1">
         <v>4</v>
       </c>
@@ -3001,13 +3034,15 @@
       <c r="M7" s="1">
         <v>5</v>
       </c>
-      <c r="N7" s="3">
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="P7" s="4"/>
+      <c r="N7" s="31">
+        <v>0.81249999999999978</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0.83680555555555536</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="S7" s="1">
         <v>5</v>
       </c>
@@ -3069,13 +3104,15 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="3">
-        <v>0.69097222222222221</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.71180555555555558</v>
-      </c>
-      <c r="P8" s="30"/>
+      <c r="N8" s="31">
+        <v>0.8506944444444442</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0.87499999999999978</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Q8" s="29"/>
       <c r="S8" s="1">
         <v>6</v>
@@ -3141,13 +3178,15 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="P9" s="30"/>
+      <c r="N9" s="31">
+        <v>0.88888888888888862</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0.9131944444444442</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Q9" s="29"/>
       <c r="S9" s="1">
         <v>7</v>
@@ -3210,13 +3249,15 @@
       <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
-        <v>0.76736111111111105</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.78819444444444442</v>
-      </c>
-      <c r="P10" s="30"/>
+      <c r="N10" s="31">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="O10" s="31">
+        <v>0.95138888888888862</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Q10" s="29"/>
       <c r="S10" s="1">
         <v>8</v>
@@ -3279,13 +3320,15 @@
       <c r="M11" s="1">
         <v>9</v>
       </c>
-      <c r="N11" s="3">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="P11" s="30"/>
+      <c r="N11" s="31">
+        <v>0.96527777777777746</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="Q11" s="29"/>
       <c r="S11" s="1">
         <v>9</v>
@@ -3348,13 +3391,15 @@
       <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="N12" s="3">
-        <v>0.84374999999999989</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.86458333333333326</v>
-      </c>
-      <c r="P12" s="30"/>
+      <c r="N12" s="31">
+        <v>1.0034722222222219</v>
+      </c>
+      <c r="O12" s="31">
+        <v>1.0277777777777775</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="Q12" s="29"/>
       <c r="S12" s="1">
         <v>10</v>
@@ -3417,13 +3462,15 @@
       <c r="M13" s="1">
         <v>11</v>
       </c>
-      <c r="N13" s="3">
-        <v>0.88194444444444442</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.90277777777777768</v>
-      </c>
-      <c r="P13" s="29"/>
+      <c r="N13" s="31">
+        <v>1.0416666666666661</v>
+      </c>
+      <c r="O13" s="31">
+        <v>1.0659722222222219</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="Q13" s="30"/>
       <c r="S13" s="1">
         <v>11</v>
@@ -3486,13 +3533,15 @@
       <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="N14" s="3">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.9409722222222221</v>
-      </c>
-      <c r="P14" s="30"/>
+      <c r="N14" s="31">
+        <v>1.0798611111111107</v>
+      </c>
+      <c r="O14" s="31">
+        <v>1.1041666666666661</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="Q14" s="29"/>
       <c r="S14" s="1">
         <v>12</v>
@@ -3555,13 +3604,15 @@
       <c r="M15" s="1">
         <v>13</v>
       </c>
-      <c r="N15" s="3">
-        <v>0.95833333333333326</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.97916666666666652</v>
-      </c>
-      <c r="P15" s="29"/>
+      <c r="N15" s="31">
+        <v>1.1180555555555549</v>
+      </c>
+      <c r="O15" s="31">
+        <v>1.1423611111111105</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="Q15" s="29"/>
       <c r="S15" s="1">
         <v>13</v>
@@ -3624,12 +3675,8 @@
       <c r="M16" s="1">
         <v>14</v>
       </c>
-      <c r="N16" s="3">
-        <v>0.99652777777777768</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1.0173611111111109</v>
-      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="S16" s="1">
@@ -3693,12 +3740,8 @@
       <c r="M17" s="5">
         <v>15</v>
       </c>
-      <c r="N17" s="3">
-        <v>1.0347222222222221</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.0555555555555554</v>
-      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="S17" s="1">
@@ -3760,12 +3803,8 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="3">
-        <v>1.0729166666666665</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1.0937499999999998</v>
-      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="S18" s="1">
@@ -3815,12 +3854,8 @@
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="N19" s="3">
-        <v>1.1111111111111109</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1.1319444444444442</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="S19" s="1">
@@ -3870,12 +3905,8 @@
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="N20" s="3">
-        <v>1.1493055555555554</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1.1701388888888886</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="S20" s="1">
         <v>18</v>
       </c>
@@ -3923,12 +3954,8 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="N21" s="3">
-        <v>1.1874999999999996</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1.208333333333333</v>
-      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="S21" s="1">
         <v>19</v>
       </c>
@@ -4103,6 +4130,7 @@
     <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
